--- a/bittrexlist.xlsx
+++ b/bittrexlist.xlsx
@@ -15,9 +15,9 @@
     <sheet name="bittrexlist" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bittrexlist!$A$1:$C$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bittrexlist!$B$199:$C$394</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -2046,9 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
